--- a/testdata/New Microsoft Excel Worksheet.xlsx
+++ b/testdata/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16515" windowHeight="3960"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15330" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O11"/>
 </workbook>
 </file>
 
@@ -393,9 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,10 +435,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
